--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-06/Sample-06.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-06/Sample-06.xlsx
@@ -136,10 +136,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="3puzuwhl" xfId="1"/>
-    <cellStyle name="3puzuwhl_Alternate" xfId="2"/>
-    <cellStyle name="ifxycbqk" xfId="3"/>
-    <cellStyle name="ifxycbqk_Alternate" xfId="4"/>
+    <cellStyle name="ajjtp1va" xfId="1"/>
+    <cellStyle name="ajjtp1va_Alternate" xfId="2"/>
+    <cellStyle name="d4rc1iym" xfId="3"/>
+    <cellStyle name="d4rc1iym_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-06/Sample-06.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-06/Sample-06.xlsx
@@ -136,10 +136,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ajjtp1va" xfId="1"/>
-    <cellStyle name="ajjtp1va_Alternate" xfId="2"/>
-    <cellStyle name="d4rc1iym" xfId="3"/>
-    <cellStyle name="d4rc1iym_Alternate" xfId="4"/>
+    <cellStyle name="vfovw3xe" xfId="1"/>
+    <cellStyle name="vfovw3xe_Alternate" xfId="2"/>
+    <cellStyle name="lh0wtxmo" xfId="3"/>
+    <cellStyle name="lh0wtxmo_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
